--- a/data/FB.xlsx
+++ b/data/FB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2221"/>
+  <dimension ref="A1:G2238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51535,6 +51535,397 @@
         <v>9380537</v>
       </c>
     </row>
+    <row r="2222">
+      <c r="A2222" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="B2222" t="n">
+        <v>275.709991</v>
+      </c>
+      <c r="C2222" t="n">
+        <v>286.230011</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>275.410004</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>284.01001</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>284.01001</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>21073900</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B2223" t="n">
+        <v>279.869995</v>
+      </c>
+      <c r="C2223" t="n">
+        <v>285.190002</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>278.279999</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>278.619995</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>278.619995</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>18728300</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="B2224" t="n">
+        <v>281.220001</v>
+      </c>
+      <c r="C2224" t="n">
+        <v>292.799988</v>
+      </c>
+      <c r="D2224" t="n">
+        <v>281.200012</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>290.109985</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>290.109985</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>38905100</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B2225" t="n">
+        <v>290.450012</v>
+      </c>
+      <c r="C2225" t="n">
+        <v>299.709991</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>286.75</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>293.540009</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>293.540009</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>28273100</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="2" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B2226" t="n">
+        <v>293.149994</v>
+      </c>
+      <c r="C2226" t="n">
+        <v>298</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>289.809998</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>290.630005</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>290.630005</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>23000900</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="B2227" t="n">
+        <v>291</v>
+      </c>
+      <c r="C2227" t="n">
+        <v>291.720001</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>281.160004</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>282.140015</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>282.140015</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>18675000</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B2228" t="n">
+        <v>280.980011</v>
+      </c>
+      <c r="C2228" t="n">
+        <v>288.059998</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>277.75</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>278.73999</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>278.73999</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>24505600</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="2" t="n">
+        <v>44281</v>
+      </c>
+      <c r="B2229" t="n">
+        <v>278.299988</v>
+      </c>
+      <c r="C2229" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>277.769989</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>283.019989</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>283.019989</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>17620600</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B2230" t="n">
+        <v>285.769989</v>
+      </c>
+      <c r="C2230" t="n">
+        <v>293.179993</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>284.700012</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>290.820007</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>290.820007</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>21718800</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B2231" t="n">
+        <v>289.829987</v>
+      </c>
+      <c r="C2231" t="n">
+        <v>292.470001</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>286.700012</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>288</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>288</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>17474500</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B2232" t="n">
+        <v>289.98999</v>
+      </c>
+      <c r="C2232" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>288.609985</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>294.529999</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>294.529999</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>19498200</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B2233" t="n">
+        <v>298.399994</v>
+      </c>
+      <c r="C2233" t="n">
+        <v>302.399994</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>296.600006</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>298.660004</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>298.660004</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>17590700</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B2234" t="n">
+        <v>300.890015</v>
+      </c>
+      <c r="C2234" t="n">
+        <v>310.769989</v>
+      </c>
+      <c r="D2234" t="n">
+        <v>300.679993</v>
+      </c>
+      <c r="E2234" t="n">
+        <v>308.910004</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>308.910004</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>28237000</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B2235" t="n">
+        <v>308.839996</v>
+      </c>
+      <c r="C2235" t="n">
+        <v>311.350006</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>305.25</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>306.26001</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>306.26001</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>17335200</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="B2236" t="n">
+        <v>306.339996</v>
+      </c>
+      <c r="C2236" t="n">
+        <v>314.25</v>
+      </c>
+      <c r="D2236" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="E2236" t="n">
+        <v>313.089996</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>313.089996</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>22855200</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" s="2" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B2237" t="n">
+        <v>314.850006</v>
+      </c>
+      <c r="C2237" t="n">
+        <v>315.880005</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>310.049988</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>313.019989</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>313.019989</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>20860700</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" s="2" t="n">
+        <v>44295</v>
+      </c>
+      <c r="B2238" t="n">
+        <v>311.399994</v>
+      </c>
+      <c r="C2238" t="n">
+        <v>314.73999</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>310.579987</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>311.869995</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>311.869995</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>5913974</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
